--- a/examples/ex004.fit_poly.xlsx
+++ b/examples/ex004.fit_poly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4458CF6C-8DFD-48F4-A339-88B4E3A01037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1007CF02-ADCD-42FD-BA0C-32EF13BC3F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36015" yWindow="1245" windowWidth="28770" windowHeight="17400" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
+    <workbookView xWindow="-38010" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Poly" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2105,1344 +2106,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="mAL_idwint"/>
-      <sheetName val="mAL_lsfit"/>
-      <sheetName val="mAL_polint"/>
-      <sheetName val="mAL_ratint"/>
-      <sheetName val="mAL_spline1d"/>
-      <sheetName val="mAL_spline2d"/>
-      <sheetName val="mAL_spline3"/>
-      <sheetName val="m_CSpline"/>
-      <sheetName val="Index"/>
-      <sheetName val="Interpolate"/>
-      <sheetName val="Interp2D"/>
-      <sheetName val="Fit_Spline"/>
-      <sheetName val="Fit_Lin"/>
-      <sheetName val="Fit_Poly"/>
-      <sheetName val="Fit_NonLin"/>
-      <sheetName val="Integrate"/>
-      <sheetName val="Differentiate"/>
-      <sheetName val="Matrix"/>
-      <sheetName val="About"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12">
-        <row r="43">
-          <cell r="B43">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="41">
-          <cell r="E41" t="str">
-            <v>AL_FitPolyCW</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>5</v>
-          </cell>
-          <cell r="B42">
-            <v>-9.8011876392691696E-14</v>
-          </cell>
-          <cell r="C42">
-            <v>5</v>
-          </cell>
-          <cell r="D42">
-            <v>0.42963747957857445</v>
-          </cell>
-          <cell r="E42">
-            <v>2.0071246217805068</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>5.01</v>
-          </cell>
-          <cell r="B43">
-            <v>12.434494358242716</v>
-          </cell>
-          <cell r="C43">
-            <v>5.0199999999999996</v>
-          </cell>
-          <cell r="D43">
-            <v>16.246030787094988</v>
-          </cell>
-          <cell r="E43">
-            <v>13.386126898106177</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>5.0199999999999996</v>
-          </cell>
-          <cell r="B44">
-            <v>16.05845580339053</v>
-          </cell>
-          <cell r="C44">
-            <v>5.0399999999999991</v>
-          </cell>
-          <cell r="D44">
-            <v>17.252568859522878</v>
-          </cell>
-          <cell r="E44">
-            <v>16.314879812754068</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>5.0299999999999994</v>
-          </cell>
-          <cell r="B45">
-            <v>17.113677648217291</v>
-          </cell>
-          <cell r="C45">
-            <v>5.0599999999999987</v>
-          </cell>
-          <cell r="D45">
-            <v>14.030740798861823</v>
-          </cell>
-          <cell r="E45">
-            <v>14.439595728554011</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>5.0399999999999991</v>
-          </cell>
-          <cell r="B46">
-            <v>16.886558510040437</v>
-          </cell>
-          <cell r="C46">
-            <v>5.0799999999999983</v>
-          </cell>
-          <cell r="D46">
-            <v>9.7787832711730491</v>
-          </cell>
-          <cell r="E46">
-            <v>10.710832124124163</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>5.0499999999999989</v>
-          </cell>
-          <cell r="B47">
-            <v>15.850941938252745</v>
-          </cell>
-          <cell r="C47">
-            <v>5.0999999999999979</v>
-          </cell>
-          <cell r="D47">
-            <v>5.3446238408646307</v>
-          </cell>
-          <cell r="E47">
-            <v>6.6947752899854027</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>5.0599999999999987</v>
-          </cell>
-          <cell r="B48">
-            <v>14.257524691832725</v>
-          </cell>
-          <cell r="C48">
-            <v>5.1199999999999974</v>
-          </cell>
-          <cell r="D48">
-            <v>1.163904278645808</v>
-          </cell>
-          <cell r="E48">
-            <v>3.0099520348239595</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>5.0699999999999985</v>
-          </cell>
-          <cell r="B49">
-            <v>12.278590634108962</v>
-          </cell>
-          <cell r="C49">
-            <v>5.139999999999997</v>
-          </cell>
-          <cell r="D49">
-            <v>-2.2716802592655201</v>
-          </cell>
-          <cell r="E49">
-            <v>-0.11969247952446485</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>5.0799999999999983</v>
-          </cell>
-          <cell r="B50">
-            <v>10.053633916289531</v>
-          </cell>
-          <cell r="C50">
-            <v>5.1599999999999966</v>
-          </cell>
-          <cell r="D50">
-            <v>-4.5021803018275515</v>
-          </cell>
-          <cell r="E50">
-            <v>-2.5373245440259571</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>5.0899999999999981</v>
-          </cell>
-          <cell r="B51">
-            <v>7.7051324277583708</v>
-          </cell>
-          <cell r="C51">
-            <v>5.1799999999999962</v>
-          </cell>
-          <cell r="D51">
-            <v>-5.2846533863574487</v>
-          </cell>
-          <cell r="E51">
-            <v>-4.0700191335309857</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>5.0999999999999979</v>
-          </cell>
-          <cell r="B52">
-            <v>5.3435022935684513</v>
-          </cell>
-          <cell r="C52">
-            <v>5.1999999999999957</v>
-          </cell>
-          <cell r="D52">
-            <v>-4.690708114788789</v>
-          </cell>
-          <cell r="E52">
-            <v>-4.589122668132827</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>5.1099999999999977</v>
-          </cell>
-          <cell r="B53">
-            <v>3.067704605706175</v>
-          </cell>
-          <cell r="C53">
-            <v>5.2199999999999953</v>
-          </cell>
-          <cell r="D53">
-            <v>-3.0810229811099616</v>
-          </cell>
-          <cell r="E53">
-            <v>-4.1028099425836517</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>5.1199999999999974</v>
-          </cell>
-          <cell r="B54">
-            <v>0.96410179664900564</v>
-          </cell>
-          <cell r="C54">
-            <v>5.2399999999999949</v>
-          </cell>
-          <cell r="D54">
-            <v>-0.99103689161562059</v>
-          </cell>
-          <cell r="E54">
-            <v>-2.8059410218141014</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>5.1299999999999972</v>
-          </cell>
-          <cell r="B55">
-            <v>-0.89523738260170105</v>
-          </cell>
-          <cell r="C55">
-            <v>5.2599999999999945</v>
-          </cell>
-          <cell r="D55">
-            <v>1.0173016191938891</v>
-          </cell>
-          <cell r="E55">
-            <v>-1.0591824021564145</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>5.139999999999997</v>
-          </cell>
-          <cell r="B56">
-            <v>-2.4541636845640897</v>
-          </cell>
-          <cell r="C56">
-            <v>5.279999999999994</v>
-          </cell>
-          <cell r="D56">
-            <v>2.4887224124584169</v>
-          </cell>
-          <cell r="E56">
-            <v>0.69262893652981228</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>5.1499999999999968</v>
-          </cell>
-          <cell r="B57">
-            <v>-3.6736578268276161</v>
-          </cell>
-          <cell r="C57">
-            <v>5.2999999999999936</v>
-          </cell>
-          <cell r="D57">
-            <v>3.1612354718943916</v>
-          </cell>
-          <cell r="E57">
-            <v>2.0311693694090587</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>5.1599999999999966</v>
-          </cell>
-          <cell r="B58">
-            <v>-4.5324308398573514</v>
-          </cell>
-          <cell r="C58">
-            <v>5.3199999999999932</v>
-          </cell>
-          <cell r="D58">
-            <v>2.9942671784111399</v>
-          </cell>
-          <cell r="E58">
-            <v>2.6673195707081736</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>5.1699999999999964</v>
-          </cell>
-          <cell r="B59">
-            <v>-5.0268169581444404</v>
-          </cell>
-          <cell r="C59">
-            <v>5.3399999999999928</v>
-          </cell>
-          <cell r="D59">
-            <v>2.1429306603327962</v>
-          </cell>
-          <cell r="E59">
-            <v>2.5060321153345195</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>5.1799999999999962</v>
-          </cell>
-          <cell r="B60">
-            <v>-5.1699328985720596</v>
-          </cell>
-          <cell r="C60">
-            <v>5.3599999999999923</v>
-          </cell>
-          <cell r="D60">
-            <v>0.89393663745877305</v>
-          </cell>
-          <cell r="E60">
-            <v>1.6578798897778935</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>5.1899999999999959</v>
-          </cell>
-          <cell r="B61">
-            <v>-4.9901336421414966</v>
-          </cell>
-          <cell r="C61">
-            <v>5.3799999999999919</v>
-          </cell>
-          <cell r="D61">
-            <v>-0.41644913695469365</v>
-          </cell>
-          <cell r="E61">
-            <v>0.39789966376509622</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>5.1999999999999957</v>
-          </cell>
-          <cell r="B62">
-            <v>-4.5288405537867007</v>
-          </cell>
-          <cell r="C62">
-            <v>5.3999999999999915</v>
-          </cell>
-          <cell r="D62">
-            <v>-1.4823200654549491</v>
-          </cell>
-          <cell r="E62">
-            <v>-0.91405641081464439</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>5.2099999999999955</v>
-          </cell>
-          <cell r="B63">
-            <v>-3.8378542068276977</v>
-          </cell>
-          <cell r="C63">
-            <v>5.419999999999991</v>
-          </cell>
-          <cell r="D63">
-            <v>-2.0899564480847261</v>
-          </cell>
-          <cell r="E63">
-            <v>-1.9289001440453952</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>5.2199999999999953</v>
-          </cell>
-          <cell r="B64">
-            <v>-2.9762917649077787</v>
-          </cell>
-          <cell r="C64">
-            <v>5.4399999999999906</v>
-          </cell>
-          <cell r="D64">
-            <v>-2.1518919395979776</v>
-          </cell>
-          <cell r="E64">
-            <v>-2.3952426303450154</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>5.2299999999999951</v>
-          </cell>
-          <cell r="B65">
-            <v>-2.0073069754243043</v>
-          </cell>
-          <cell r="C65">
-            <v>5.4599999999999902</v>
-          </cell>
-          <cell r="D65">
-            <v>-1.710429869188977</v>
-          </cell>
-          <cell r="E65">
-            <v>-2.2170351185156436</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>5.2399999999999949</v>
-          </cell>
-          <cell r="B66">
-            <v>-0.99475954865994887</v>
-          </cell>
-          <cell r="C66">
-            <v>5.4799999999999898</v>
-          </cell>
-          <cell r="D66">
-            <v>-0.9140265294935408</v>
-          </cell>
-          <cell r="E66">
-            <v>-1.4696007123686554</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>5.2499999999999947</v>
-          </cell>
-          <cell r="B67">
-            <v>-5.2395487788204063E-13</v>
-          </cell>
-          <cell r="C67">
-            <v>5.4999999999999893</v>
-          </cell>
-          <cell r="D67">
-            <v>2.5420798188484108E-2</v>
-          </cell>
-          <cell r="E67">
-            <v>-0.37228047383099949</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>5.2599999999999945</v>
-          </cell>
-          <cell r="B68">
-            <v>0.92107365616564196</v>
-          </cell>
-          <cell r="C68">
-            <v>5.5199999999999889</v>
-          </cell>
-          <cell r="D68">
-            <v>0.88380191642261408</v>
-          </cell>
-          <cell r="E68">
-            <v>0.77375869396633201</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>5.2699999999999942</v>
-          </cell>
-          <cell r="B69">
-            <v>1.7205488360771337</v>
-          </cell>
-          <cell r="C69">
-            <v>5.5399999999999885</v>
-          </cell>
-          <cell r="D69">
-            <v>1.4735986126135525</v>
-          </cell>
-          <cell r="E69">
-            <v>1.6660828254844333</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>5.279999999999994</v>
-          </cell>
-          <cell r="B70">
-            <v>2.3605072618227259</v>
-          </cell>
-          <cell r="C70">
-            <v>5.5599999999999881</v>
-          </cell>
-          <cell r="D70">
-            <v>1.680916152373658</v>
-          </cell>
-          <cell r="E70">
-            <v>2.0795128255368822</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>5.2899999999999938</v>
-          </cell>
-          <cell r="B71">
-            <v>2.8144264183398313</v>
-          </cell>
-          <cell r="C71">
-            <v>5.5799999999999876</v>
-          </cell>
-          <cell r="D71">
-            <v>1.4844457109372076</v>
-          </cell>
-          <cell r="E71">
-            <v>1.9230194529769822</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>5.2999999999999936</v>
-          </cell>
-          <cell r="B72">
-            <v>3.0679242461133001</v>
-          </cell>
-          <cell r="C72">
-            <v>5.5999999999999872</v>
-          </cell>
-          <cell r="D72">
-            <v>0.95394323600559572</v>
-          </cell>
-          <cell r="E72">
-            <v>1.2607620424366248</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>5.3099999999999934</v>
-          </cell>
-          <cell r="B73">
-            <v>3.1188335263383826</v>
-          </cell>
-          <cell r="C73">
-            <v>5.6199999999999868</v>
-          </cell>
-          <cell r="D73">
-            <v>0.22982266444857863</v>
-          </cell>
-          <cell r="E73">
-            <v>0.29183379832625123</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>5.3199999999999932</v>
-          </cell>
-          <cell r="B74">
-            <v>2.9766280325113401</v>
-          </cell>
-          <cell r="C74">
-            <v>5.6399999999999864</v>
-          </cell>
-          <cell r="D74">
-            <v>-0.51105297302358865</v>
-          </cell>
-          <cell r="E74">
-            <v>-0.70635945156237534</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>5.329999999999993</v>
-          </cell>
-          <cell r="B75">
-            <v>2.6612560366650406</v>
-          </cell>
-          <cell r="C75">
-            <v>5.6599999999999859</v>
-          </cell>
-          <cell r="D75">
-            <v>-1.095880368810459</v>
-          </cell>
-          <cell r="E75">
-            <v>-1.4565262276475905</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>5.3399999999999928</v>
-          </cell>
-          <cell r="B76">
-            <v>2.2014664079312096</v>
-          </cell>
-          <cell r="C76">
-            <v>5.6799999999999855</v>
-          </cell>
-          <cell r="D76">
-            <v>-1.3942304618346593</v>
-          </cell>
-          <cell r="E76">
-            <v>-1.7606027915396738</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>5.3499999999999925</v>
-          </cell>
-          <cell r="B77">
-            <v>1.6327368119239896</v>
-          </cell>
-          <cell r="C77">
-            <v>5.6999999999999851</v>
-          </cell>
-          <cell r="D77">
-            <v>-1.3462480537613024</v>
-          </cell>
-          <cell r="E77">
-            <v>-1.5568815537527714</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>5.3599999999999923</v>
-          </cell>
-          <cell r="B78">
-            <v>0.99493122347261276</v>
-          </cell>
-          <cell r="C78">
-            <v>5.7199999999999847</v>
-          </cell>
-          <cell r="D78">
-            <v>-0.97485796537146685</v>
-          </cell>
-          <cell r="E78">
-            <v>-0.93699040542301604</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>5.3699999999999921</v>
-          </cell>
-          <cell r="B79">
-            <v>0.32982429885395109</v>
-          </cell>
-          <cell r="C79">
-            <v>5.7399999999999842</v>
-          </cell>
-          <cell r="D79">
-            <v>-0.37928653898939552</v>
-          </cell>
-          <cell r="E79">
-            <v>-0.11489610598572976</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>5.3799999999999919</v>
-          </cell>
-          <cell r="B80">
-            <v>-0.32136726554898448</v>
-          </cell>
-          <cell r="C80">
-            <v>5.7599999999999838</v>
-          </cell>
-          <cell r="D80">
-            <v>0.28897403961756746</v>
-          </cell>
-          <cell r="E80">
-            <v>0.64550862300173351</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>5.3899999999999917</v>
-          </cell>
-          <cell r="B81">
-            <v>-0.92031138171121907</v>
-          </cell>
-          <cell r="C81">
-            <v>5.7799999999999834</v>
-          </cell>
-          <cell r="D81">
-            <v>0.86282798913556269</v>
-          </cell>
-          <cell r="E81">
-            <v>1.1226135038835385</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>5.3999999999999915</v>
-          </cell>
-          <cell r="B82">
-            <v>-1.4336225665666149</v>
-          </cell>
-          <cell r="C82">
-            <v>5.7999999999999829</v>
-          </cell>
-          <cell r="D82">
-            <v>1.2008491845568534</v>
-          </cell>
-          <cell r="E82">
-            <v>1.2164222692965942</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>5.4099999999999913</v>
-          </cell>
-          <cell r="B83">
-            <v>-1.8345553399420558</v>
-          </cell>
-          <cell r="C83">
-            <v>5.8199999999999825</v>
-          </cell>
-          <cell r="D83">
-            <v>1.2234507360840789</v>
-          </cell>
-          <cell r="E83">
-            <v>0.98056068749191005</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>5.419999999999991</v>
-          </cell>
-          <cell r="B84">
-            <v>-2.1042489592231237</v>
-          </cell>
-          <cell r="C84">
-            <v>5.8399999999999821</v>
-          </cell>
-          <cell r="D84">
-            <v>0.93445790209638535</v>
-          </cell>
-          <cell r="E84">
-            <v>0.5845736555889689</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>5.4299999999999908</v>
-          </cell>
-          <cell r="B85">
-            <v>-2.2324710243833317</v>
-          </cell>
-          <cell r="C85">
-            <v>5.8599999999999817</v>
-          </cell>
-          <cell r="D85">
-            <v>0.42103982180423971</v>
-          </cell>
-          <cell r="E85">
-            <v>0.21186069279212832</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>5.4399999999999906</v>
-          </cell>
-          <cell r="B86">
-            <v>-2.2178371742851279</v>
-          </cell>
-          <cell r="C86">
-            <v>5.8799999999999812</v>
-          </cell>
-          <cell r="D86">
-            <v>-0.17037693568369097</v>
-          </cell>
-          <cell r="E86">
-            <v>-6.1715838204739228E-2</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>5.4499999999999904</v>
-          </cell>
-          <cell r="B87">
-            <v>-2.0675141658592371</v>
-          </cell>
-          <cell r="C87">
-            <v>5.8999999999999808</v>
-          </cell>
-          <cell r="D87">
-            <v>-0.67808687097116138</v>
-          </cell>
-          <cell r="E87">
-            <v>-0.3250664493221827</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>5.4599999999999902</v>
-          </cell>
-          <cell r="B88">
-            <v>-1.7964423946854555</v>
-          </cell>
-          <cell r="C88">
-            <v>5.9199999999999804</v>
-          </cell>
-          <cell r="D88">
-            <v>-0.97729615194084163</v>
-          </cell>
-          <cell r="E88">
-            <v>-0.73197758353151732</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>5.46999999999999</v>
-          </cell>
-          <cell r="B89">
-            <v>-1.426139804018516</v>
-          </cell>
-          <cell r="C89">
-            <v>5.93999999999998</v>
-          </cell>
-          <cell r="D89">
-            <v>-1.0214026776111964</v>
-          </cell>
-          <cell r="E89">
-            <v>-1.2192898968355632</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>5.4799999999999898</v>
-          </cell>
-          <cell r="B90">
-            <v>-0.98317076347337695</v>
-          </cell>
-          <cell r="C90">
-            <v>5.9599999999999795</v>
-          </cell>
-          <cell r="D90">
-            <v>-0.8473586905471312</v>
-          </cell>
-          <cell r="E90">
-            <v>-1.2420001471183495</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>5.4899999999999896</v>
-          </cell>
-          <cell r="B91">
-            <v>-0.49737977433022956</v>
-          </cell>
-          <cell r="C91">
-            <v>5.9799999999999791</v>
-          </cell>
-          <cell r="D91">
-            <v>-0.51733998309161855</v>
-          </cell>
-          <cell r="E91">
-            <v>-0.2199201899264718</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>5.4999999999999893</v>
-          </cell>
-          <cell r="B92">
-            <v>-5.3230670144065529E-13</v>
-          </cell>
-          <cell r="C92">
-            <v>5.9999999999999787</v>
-          </cell>
-          <cell r="D92">
-            <v>2.9321142155403695E-2</v>
-          </cell>
-          <cell r="E92">
-            <v>-0.325935058286971</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>5.5099999999999891</v>
-          </cell>
-          <cell r="B93">
-            <v>0.47824978300883797</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>5.5199999999999889</v>
-          </cell>
-          <cell r="B94">
-            <v>0.90896919641788476</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>5.5299999999999887</v>
-          </cell>
-          <cell r="B95">
-            <v>1.2676798257935131</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>5.5399999999999885</v>
-          </cell>
-          <cell r="B96">
-            <v>1.5351416827306854</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>5.5499999999999883</v>
-          </cell>
-          <cell r="B97">
-            <v>1.6983152076697916</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>5.5599999999999881</v>
-          </cell>
-          <cell r="B98">
-            <v>1.7509240849618841</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>5.5699999999999878</v>
-          </cell>
-          <cell r="B99">
-            <v>1.6935987081530477</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>5.5799999999999876</v>
-          </cell>
-          <cell r="B100">
-            <v>1.5336051736714771</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>5.5899999999999874</v>
-          </cell>
-          <cell r="B101">
-            <v>1.2841887379600159</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>5.5999999999999872</v>
-          </cell>
-          <cell r="B102">
-            <v>0.96358238080777958</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>5.609999999999987</v>
-          </cell>
-          <cell r="B103">
-            <v>0.59374927852418136</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>5.6199999999999868</v>
-          </cell>
-          <cell r="B104">
-            <v>0.19894164057878663</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>5.6299999999999866</v>
-          </cell>
-          <cell r="B105">
-            <v>-0.19583317744370279</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>5.6399999999999864</v>
-          </cell>
-          <cell r="B106">
-            <v>-0.56634546566825927</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>5.6499999999999861</v>
-          </cell>
-          <cell r="B107">
-            <v>-0.89058371559424643</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>5.6599999999999859</v>
-          </cell>
-          <cell r="B108">
-            <v>-1.1500197653366826</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>5.6699999999999857</v>
-          </cell>
-          <cell r="B109">
-            <v>-1.3306280183321848</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>5.6799999999999855</v>
-          </cell>
-          <cell r="B110">
-            <v>-1.4236047112009285</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>5.6899999999999853</v>
-          </cell>
-          <cell r="B111">
-            <v>-1.4257524691833086</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>5.6999999999999851</v>
-          </cell>
-          <cell r="B112">
-            <v>-1.3395162201342123</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>5.7099999999999849</v>
-          </cell>
-          <cell r="B113">
-            <v>-1.172677674308662</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>5.7199999999999847</v>
-          </cell>
-          <cell r="B114">
-            <v>-0.93773576154655658</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>5.7299999999999844</v>
-          </cell>
-          <cell r="B115">
-            <v>-0.65101847851630679</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>5.7399999999999842</v>
-          </cell>
-          <cell r="B116">
-            <v>-0.3315865162203277</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>5.749999999999984</v>
-          </cell>
-          <cell r="B117">
-            <v>-5.3516390423702351E-13</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>5.7599999999999838</v>
-          </cell>
-          <cell r="B118">
-            <v>0.32297387943436978</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>5.7699999999999836</v>
-          </cell>
-          <cell r="B119">
-            <v>0.61763291551456456</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>5.7799999999999834</v>
-          </cell>
-          <cell r="B120">
-            <v>0.86651532395999809</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>5.7899999999999832</v>
-          </cell>
-          <cell r="B121">
-            <v>1.0554099068772556</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>5.7999999999999829</v>
-          </cell>
-          <cell r="B122">
-            <v>1.1741438472778292</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>5.8099999999999827</v>
-          </cell>
-          <cell r="B123">
-            <v>1.2171057663759335</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>5.8199999999999825</v>
-          </cell>
-          <cell r="B124">
-            <v>1.1834786153358936</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>5.8299999999999823</v>
-          </cell>
-          <cell r="B125">
-            <v>1.0771750624597964</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>5.8399999999999821</v>
-          </cell>
-          <cell r="B126">
-            <v>0.90648616797187742</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>5.8499999999999819</v>
-          </cell>
-          <cell r="B127">
-            <v>0.68347122359634305</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>5.8599999999999817</v>
-          </cell>
-          <cell r="B128">
-            <v>0.42313166975300948</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>5.8699999999999815</v>
-          </cell>
-          <cell r="B129">
-            <v>0.14242412905087473</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>5.8799999999999812</v>
-          </cell>
-          <cell r="B130">
-            <v>-0.14082385793689395</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>5.889999999999981</v>
-          </cell>
-          <cell r="B131">
-            <v>-0.40902728076026978</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>5.8999999999999808</v>
-          </cell>
-          <cell r="B132">
-            <v>-0.64591785966164106</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>5.9099999999999806</v>
-          </cell>
-          <cell r="B133">
-            <v>-0.8375143943211909</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>5.9199999999999804</v>
-          </cell>
-          <cell r="B134">
-            <v>-0.972932314479385</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>5.9299999999999802</v>
-          </cell>
-          <cell r="B135">
-            <v>-1.0449864369453354</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>5.93999999999998</v>
-          </cell>
-          <cell r="B136">
-            <v>-1.0505544509771838</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>5.9499999999999797</v>
-          </cell>
-          <cell r="B137">
-            <v>-0.99068387114097145</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>5.9599999999999795</v>
-          </cell>
-          <cell r="B138">
-            <v>-0.87044116031165875</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>5.9699999999999793</v>
-          </cell>
-          <cell r="B139">
-            <v>-0.69851745502967844</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>5.9799999999999791</v>
-          </cell>
-          <cell r="B140">
-            <v>-0.48661987283049041</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>5.9899999999999789</v>
-          </cell>
-          <cell r="B141">
-            <v>-0.24868988716537677</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>5.9999999999999787</v>
-          </cell>
-          <cell r="B142">
-            <v>-5.2957157361182214E-13</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
       <definedName name="crv_fit_poly"/>
-      <definedName name="getUFVersion"/>
+      <definedName name="unf_Version"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3748,8 +2419,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:X150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,8 +2446,8 @@
         <v>44</v>
       </c>
       <c r="G1" t="str">
-        <f>[2]!getUFVersion()</f>
-        <v>7.11</v>
+        <f>[1]!unf_Version()</f>
+        <v>7.23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4087,11 +2758,11 @@
         <v>5</v>
       </c>
       <c r="D50" s="25">
-        <f t="array" ref="D50:D100">[2]!crv_fit_poly($B$50:$B$150,$A$50:$A$150,$D$48,0,C50:C100)</f>
+        <f t="array" ref="D50:D100">[1]!crv_fit_poly($B$50:$B$150,$A$50:$A$150,$D$48,0,C50:C100)</f>
         <v>0.42963747957857445</v>
       </c>
       <c r="E50" s="28">
-        <f t="array" ref="E50:E100">[2]!crv_fit_poly(B50:B150,A50:A150,D48,0,C50:C100,,G50:I51)</f>
+        <f t="array" ref="E50:E100">[1]!crv_fit_poly(B50:B150,A50:A150,D48,0,C50:C100,,G50:I51)</f>
         <v>2.0071246217805068</v>
       </c>
       <c r="G50" s="30">

--- a/examples/ex004.fit_poly.xlsx
+++ b/examples/ex004.fit_poly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1007CF02-ADCD-42FD-BA0C-32EF13BC3F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D725268F-FA50-4F1E-B43D-71EBC12E80CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38010" yWindow="390" windowWidth="28800" windowHeight="15435" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
+    <workbookView xWindow="-33675" yWindow="3645" windowWidth="28410" windowHeight="15210" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Poly" sheetId="2" r:id="rId1"/>
@@ -2420,7 +2420,7 @@
   <dimension ref="A1:X150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/examples/ex004.fit_poly.xlsx
+++ b/examples/ex004.fit_poly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D725268F-FA50-4F1E-B43D-71EBC12E80CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D7BAB-631D-4913-8346-BC1F2CE7B1D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33675" yWindow="3645" windowWidth="28410" windowHeight="15210" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
+    <workbookView xWindow="-1956" yWindow="1824" windowWidth="23040" windowHeight="12660" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Poly" sheetId="2" r:id="rId1"/>
@@ -2420,25 +2420,25 @@
   <dimension ref="A1:X150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>43</v>
       </c>
@@ -2447,20 +2447,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!unf_Version()</f>
-        <v>7.23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>45</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -2484,22 +2484,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
@@ -2539,17 +2539,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -2565,31 +2565,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
@@ -2597,16 +2597,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -2614,25 +2614,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>26</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>28</v>
       </c>
@@ -2648,58 +2648,58 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>38</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>39</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="I49" s="22"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>5</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>5.01</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>5.0199999999999996</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>16.314879812754068</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>5.0299999999999994</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>14.439595728554011</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>5.0399999999999991</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>10.710832124124163</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>5.0499999999999989</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>6.6947752899854027</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>5.0599999999999987</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>3.0099520348239595</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>5.0699999999999985</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>-0.11969247952446485</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>5.0799999999999983</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>-2.5373245440259571</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>5.0899999999999981</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>-4.0700191335309857</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>5.0999999999999979</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>-4.589122668132827</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="30">
         <v>5.1099999999999977</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>-4.1028099425836517</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
         <v>5.1199999999999974</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>-2.8059410218141014</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>5.1299999999999972</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>-1.0591824021564145</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>5.139999999999997</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>0.69262893652981228</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
         <v>5.1499999999999968</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>2.0311693694090587</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
         <v>5.1599999999999966</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>2.6673195707081736</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
         <v>5.1699999999999964</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>2.5060321153345195</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="30">
         <v>5.1799999999999962</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>1.6578798897778935</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="30">
         <v>5.1899999999999959</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>0.39789966376509622</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="30">
         <v>5.1999999999999957</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>-0.91405641081464439</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="30">
         <v>5.2099999999999955</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>-1.9289001440453952</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="30">
         <v>5.2199999999999953</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>-2.3952426303450154</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="30">
         <v>5.2299999999999951</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>-2.2170351185156436</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="30">
         <v>5.2399999999999949</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>-1.4696007123686554</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="30">
         <v>5.2499999999999947</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>-0.37228047383099949</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="30">
         <v>5.2599999999999945</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0.77375869396633201</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="30">
         <v>5.2699999999999942</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>1.6660828254844333</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="30">
         <v>5.279999999999994</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>2.0795128255368822</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="30">
         <v>5.2899999999999938</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>1.9230194529769822</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="30">
         <v>5.2999999999999936</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>1.2607620424366248</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="30">
         <v>5.3099999999999934</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>0.29183379832625123</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="30">
         <v>5.3199999999999932</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>-0.70635945156237534</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="30">
         <v>5.329999999999993</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>-1.4565262276475905</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="30">
         <v>5.3399999999999928</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>-1.7606027915396738</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="30">
         <v>5.3499999999999925</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>-1.5568815537527714</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="30">
         <v>5.3599999999999923</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>-0.93699040542301604</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="30">
         <v>5.3699999999999921</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>-0.11489610598572976</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="30">
         <v>5.3799999999999919</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>0.64550862300173351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="30">
         <v>5.3899999999999917</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>1.1226135038835385</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="30">
         <v>5.3999999999999915</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1.2164222692965942</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="30">
         <v>5.4099999999999913</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0.98056068749191005</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="30">
         <v>5.419999999999991</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>0.5845736555889689</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="30">
         <v>5.4299999999999908</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0.21186069279212832</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="30">
         <v>5.4399999999999906</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>-6.1715838204739228E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="30">
         <v>5.4499999999999904</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>-0.3250664493221827</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="30">
         <v>5.4599999999999902</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>-0.73197758353151732</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="30">
         <v>5.46999999999999</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>-1.2192898968355632</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="30">
         <v>5.4799999999999898</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>-1.2420001471183495</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="30">
         <v>5.4899999999999896</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>-0.2199201899264718</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="30">
         <v>5.4999999999999893</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>-0.325935058286971</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="30">
         <v>5.5099999999999891</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>0.47824978300883797</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="30">
         <v>5.5199999999999889</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>0.90896919641788476</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="30">
         <v>5.5299999999999887</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>1.2676798257935131</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="30">
         <v>5.5399999999999885</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>1.5351416827306854</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="30">
         <v>5.5499999999999883</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>1.6983152076697916</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="30">
         <v>5.5599999999999881</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>1.7509240849618841</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="30">
         <v>5.5699999999999878</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>1.6935987081530477</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="30">
         <v>5.5799999999999876</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>1.5336051736714771</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="30">
         <v>5.5899999999999874</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>1.2841887379600159</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="30">
         <v>5.5999999999999872</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0.96358238080777958</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="30">
         <v>5.609999999999987</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0.59374927852418136</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="30">
         <v>5.6199999999999868</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>0.19894164057878663</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="30">
         <v>5.6299999999999866</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>-0.19583317744370279</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="30">
         <v>5.6399999999999864</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>-0.56634546566825927</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="30">
         <v>5.6499999999999861</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>-0.89058371559424643</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="30">
         <v>5.6599999999999859</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>-1.1500197653366826</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="30">
         <v>5.6699999999999857</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>-1.3306280183321848</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="30">
         <v>5.6799999999999855</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>-1.4236047112009285</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="30">
         <v>5.6899999999999853</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>-1.4257524691833086</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="30">
         <v>5.6999999999999851</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>-1.3395162201342123</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="30">
         <v>5.7099999999999849</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>-1.172677674308662</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="30">
         <v>5.7199999999999847</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>-0.93773576154655658</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="30">
         <v>5.7299999999999844</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>-0.65101847851630679</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="30">
         <v>5.7399999999999842</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>-0.3315865162203277</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="30">
         <v>5.749999999999984</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>-5.3516390423702351E-13</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="30">
         <v>5.7599999999999838</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>0.32297387943436978</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="30">
         <v>5.7699999999999836</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0.61763291551456456</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="30">
         <v>5.7799999999999834</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0.86651532395999809</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="30">
         <v>5.7899999999999832</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>1.0554099068772556</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="30">
         <v>5.7999999999999829</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>1.1741438472778292</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="30">
         <v>5.8099999999999827</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>1.2171057663759335</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="30">
         <v>5.8199999999999825</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>1.1834786153358936</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="30">
         <v>5.8299999999999823</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>1.0771750624597964</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="30">
         <v>5.8399999999999821</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>0.90648616797187742</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="30">
         <v>5.8499999999999819</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0.68347122359634305</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="30">
         <v>5.8599999999999817</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0.42313166975300948</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="30">
         <v>5.8699999999999815</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0.14242412905087473</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="30">
         <v>5.8799999999999812</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>-0.14082385793689395</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="30">
         <v>5.889999999999981</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>-0.40902728076026978</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="30">
         <v>5.8999999999999808</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>-0.64591785966164106</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="30">
         <v>5.9099999999999806</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>-0.8375143943211909</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="30">
         <v>5.9199999999999804</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>-0.972932314479385</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="30">
         <v>5.9299999999999802</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>-1.0449864369453354</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="30">
         <v>5.93999999999998</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>-1.0505544509771838</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="30">
         <v>5.9499999999999797</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>-0.99068387114097145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="30">
         <v>5.9599999999999795</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>-0.87044116031165875</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="30">
         <v>5.9699999999999793</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>-0.69851745502967844</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="30">
         <v>5.9799999999999791</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>-0.48661987283049041</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="30">
         <v>5.9899999999999789</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>-0.24868988716537677</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="33">
         <v>5.9999999999999787</v>
       </c>
@@ -4101,7 +4101,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/examples/ex004.fit_poly.xlsx
+++ b/examples/ex004.fit_poly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D7BAB-631D-4913-8346-BC1F2CE7B1D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FD4668-BA72-4F4A-91C6-8E4126A0D8EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1956" yWindow="1824" windowWidth="23040" windowHeight="12660" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Poly" sheetId="2" r:id="rId1"/>
@@ -2420,7 +2420,7 @@
   <dimension ref="A1:X150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examples/ex004.fit_poly.xlsx
+++ b/examples/ex004.fit_poly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FD4668-BA72-4F4A-91C6-8E4126A0D8EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B5904-0B3F-46BA-B034-7078292F07C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
+    <workbookView xWindow="2844" yWindow="2772" windowWidth="17280" windowHeight="10044" xr2:uid="{AB2D79BE-8058-4974-97CC-EB1221B85D42}"/>
   </bookViews>
   <sheets>
     <sheet name="Fit_Poly" sheetId="2" r:id="rId1"/>
@@ -2419,8 +2419,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:X150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!unf_Version()</f>
-        <v>7.26</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
